--- a/data/05_input/zm.ca20a4.xlsx
+++ b/data/05_input/zm.ca20a4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/952CEEF5-8DEB-4914-9027-1309BF6A3414/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/55308865-E8DB-493C-98D5-7B6D8D75842F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA389F0-FD72-3F4D-858E-E08594B633B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452161D9-16A1-6B48-9D57-C8DCA27E9FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="17360" yWindow="2560" windowWidth="13900" windowHeight="18440" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="195">
   <si>
     <t>SampleID</t>
   </si>
@@ -66,547 +66,550 @@
     <t>Cold</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC1_S1_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC1_S1_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC2_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC2_S2_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC3_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC3_S3_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC4_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC4_S4_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC5_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BC5_S5_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH1_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH1_S6_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH2_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH2_S7_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH3_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH3_S8_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH4_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH4_S9_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH5_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BH5_S10_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
     <t>Control</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN1_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN1_S11_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN2_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN2_S12_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s13</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN3_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN3_S13_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s14</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN5_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//BN5_S14_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s15</t>
   </si>
   <si>
     <t>Mo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC1_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC1_S15_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s16</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC2_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC2_S16_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC3_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC3_S17_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC4_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC4_S53_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC5_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MC5_S18_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s20</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH1_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH1_S19_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH2_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH2_S20_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH3_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH3_S21_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH4_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH4_S22_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s24</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH5_S54_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MH5_S54_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s25</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN1_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN1_S23_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s26</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN2_S55_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN2_S55_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s27</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN3_S56_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN3_S56_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s28</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN4_S57_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN4_S57_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s29</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN5_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//MN5_S24_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s30</t>
   </si>
   <si>
     <t>Oh43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC1_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC1_S25_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s31</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC2_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC2_S26_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s32</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC3_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC3_S27_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s33</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC4_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC4_S28_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s34</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC5_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OC5_S29_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s35</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH1_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH1_S30_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s36</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH2_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH2_S31_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s37</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH3_S58_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH3_S58_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s38</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH4_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH4_S32_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s39</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH5_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//OH5_S33_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s40</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON1_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON1_S34_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s41</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON2_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON2_S35_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s42</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON3_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON3_S36_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON4_S59_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON4_S59_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s44</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON5_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//ON5_S37_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s45</t>
   </si>
   <si>
     <t>W22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC1_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC1_S38_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s46</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC2_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC2_S39_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s47</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC3_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC3_S40_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s48</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC4_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC4_S41_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s49</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC5_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WC5_S42_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s50</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH1_S43_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH1_S43_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s51</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH2_S44_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH2_S44_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s52</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH3_S45_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH3_S45_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s53</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH4_S46_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH4_S46_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s54</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH5_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WH5_S47_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s55</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN1_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN1_S48_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s56</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN2_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN2_S49_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s57</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN3_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN3_S50_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s58</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN4_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN4_S51_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s59</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN5_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200331_A00223_0350_BHHTKTDRXX/Springer_Project_071//WN5_S52_R2_001.fastq.gz</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC1_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC1_S1_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC2_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC2_S2_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC3_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC3_S3_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC4_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC4_S4_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC5_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BC5_S5_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH1_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH1_S6_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH2_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH2_S7_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH3_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH3_S8_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH4_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH4_S9_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH5_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BH5_S10_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN1_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN1_S11_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN2_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN2_S12_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN3_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN3_S13_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN5_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/BN5_S14_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC1_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC1_S15_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC2_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC2_S16_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC3_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC3_S17_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC4_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC4_S53_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC5_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MC5_S18_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH1_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH1_S19_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH2_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH2_S20_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH3_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH3_S21_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH4_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH4_S22_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH5_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MH5_S54_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN1_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN1_S23_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN2_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN2_S55_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN3_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN3_S56_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN4_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN4_S57_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN5_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/MN5_S24_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC1_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC1_S25_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC2_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC2_S26_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC3_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC3_S27_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC4_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC4_S28_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC5_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OC5_S29_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH1_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH1_S30_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH2_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH2_S31_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH3_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH3_S58_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH4_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH4_S32_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH5_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/OH5_S33_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON1_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON1_S34_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON2_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON2_S35_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON3_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON3_S36_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON4_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON4_S59_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON5_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/ON5_S37_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC1_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC1_S38_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC2_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC2_S39_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC3_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC3_S40_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC4_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC4_S41_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC5_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WC5_S42_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH1_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH1_S43_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH2_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH2_S44_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH3_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH3_S45_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH4_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH4_S46_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH5_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WH5_S47_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN1_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN1_S48_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN2_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN2_S49_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN3_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN3_S50_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN4_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN4_S51_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN5_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200331_A00223_0350_BHHTKTDRXX/WN5_S52_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -961,8 +964,8 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="H2:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,19 +1018,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1041,19 +1044,19 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1067,19 +1070,19 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1093,19 +1096,19 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1119,19 +1122,19 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1140,24 +1143,24 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1166,24 +1169,24 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1192,24 +1195,24 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1218,24 +1221,24 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1244,24 +1247,24 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1270,24 +1273,24 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1296,24 +1299,24 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1322,24 +1325,24 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1348,30 +1351,30 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1379,25 +1382,25 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1405,25 +1408,25 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1431,25 +1434,25 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1457,25 +1460,25 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1483,285 +1486,285 @@
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1769,25 +1772,25 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -1795,25 +1798,25 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1821,25 +1824,25 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1847,25 +1850,25 @@
       <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>76</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1873,285 +1876,285 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="F37" t="s">
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="F38" t="s">
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I39" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>5</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>76</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2159,25 +2162,25 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2185,25 +2188,25 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2211,25 +2214,25 @@
       <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
+      <c r="F48" t="s">
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2237,25 +2240,25 @@
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I49" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2263,274 +2266,274 @@
       <c r="E50">
         <v>5</v>
       </c>
-      <c r="F50" t="b">
-        <v>1</v>
+      <c r="F50" t="s">
+        <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I50" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
+      <c r="F51" t="s">
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
+      <c r="F52" t="s">
+        <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
+      <c r="F53" t="s">
+        <v>76</v>
       </c>
       <c r="H53" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
+      <c r="F54" t="s">
+        <v>76</v>
       </c>
       <c r="H54" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
+      <c r="F55" t="s">
+        <v>76</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
+      <c r="F56" t="s">
+        <v>76</v>
       </c>
       <c r="H56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="b">
-        <v>1</v>
+      <c r="F57" t="s">
+        <v>76</v>
       </c>
       <c r="H57" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I57" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
+      <c r="F58" t="s">
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
+      <c r="F59" t="s">
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
+      <c r="F60" t="s">
+        <v>76</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
